--- a/Hash/哈希算法对比.xlsx
+++ b/Hash/哈希算法对比.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roy/my-ref/Hash/benchmark/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roy/my-ref/Hash/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00FBDA2-1095-534B-896F-7AC33894505E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C966BF9-DFEF-2447-A9A1-9B5B534B5691}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="200">
   <si>
     <t>GO语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -917,6 +917,28 @@
   </si>
   <si>
     <t>bcprov-jdk15on-160.jar</t>
+  </si>
+  <si>
+    <t>对比一：各个哈希函数对比
+1、SHA3的性能比SHA2差；
+2、SHA2中，SHA224与SHA256的性能相似，SHA283与SHA512性能相似。SHA256比SHA512慢，因为SHA512在处理时的块大小是SHA256的两倍；
+3、SHA3中，SHA3-256的性能比SHA3-512的性能好；
+4、MD5和SHA1的性能比较快，因为计算过程相对简单，但也比较不安全。RIPEMD160的性能比SHA2的差。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比二：明文大小对性能的影响
+1、明文越大，计算哈希所需时间越长，计算时间与明文大小几乎成正比；
+2、不推荐对大量的大明文（比如30MB）做哈希计算。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比三：GO、JS、JAVA对比
+1、从整体看，GO的性能是最好的，JS次之，JAVA最慢；
+2、GO语言，两部分都是官方提供的库；
+3、NodeJS，官方提供的crypto的库中的哈希算法性能跟GO语言相差不多，但是官方没有提供SHA3的包，第三方实现的包在保证准确性的基础上性能很差；
+4、JAVA的效率是最低的，JDK中没有SHA3的实现，调用了Bouncy Castle库。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1240,7 +1262,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1317,6 +1339,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1335,6 +1366,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1347,20 +1384,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1652,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1672,15 +1700,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
@@ -1710,7 +1738,7 @@
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="31" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -1734,7 +1762,7 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
@@ -1756,7 +1784,7 @@
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="25" t="s">
         <v>12</v>
       </c>
@@ -1778,7 +1806,7 @@
       <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="25"/>
       <c r="C6" s="4" t="s">
         <v>18</v>
@@ -1798,7 +1826,7 @@
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="25"/>
       <c r="C7" s="4" t="s">
         <v>22</v>
@@ -1818,7 +1846,7 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="25"/>
       <c r="C8" s="4" t="s">
         <v>21</v>
@@ -1838,7 +1866,7 @@
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="25"/>
       <c r="C9" s="4" t="s">
         <v>20</v>
@@ -1858,7 +1886,7 @@
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="25"/>
       <c r="C10" s="4" t="s">
         <v>34</v>
@@ -1878,7 +1906,7 @@
       <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -1902,7 +1930,7 @@
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="25" t="s">
         <v>16</v>
       </c>
@@ -1924,7 +1952,7 @@
       <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="25"/>
       <c r="C13" s="4" t="s">
         <v>31</v>
@@ -1944,7 +1972,7 @@
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="25"/>
       <c r="C14" s="4" t="s">
         <v>30</v>
@@ -1964,7 +1992,7 @@
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="25"/>
       <c r="C15" s="4" t="s">
         <v>23</v>
@@ -2008,7 +2036,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="32" t="s">
         <v>148</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -2031,7 +2059,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="16" t="s">
         <v>11</v>
       </c>
@@ -2052,7 +2080,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="25" t="s">
         <v>12</v>
       </c>
@@ -2073,7 +2101,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="25"/>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -2092,7 +2120,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="25"/>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -2111,7 +2139,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="25"/>
       <c r="C23" s="4" t="s">
         <v>21</v>
@@ -2130,7 +2158,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="25"/>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -2149,7 +2177,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="25"/>
       <c r="C25" s="4" t="s">
         <v>34</v>
@@ -2168,7 +2196,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="16" t="s">
         <v>37</v>
       </c>
@@ -2189,7 +2217,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="32" t="s">
         <v>149</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -2212,7 +2240,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="25"/>
       <c r="C28" s="4" t="s">
         <v>31</v>
@@ -2231,7 +2259,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="25"/>
       <c r="C29" s="4" t="s">
         <v>30</v>
@@ -2250,7 +2278,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="25"/>
       <c r="C30" s="4" t="s">
         <v>23</v>
@@ -2474,7 +2502,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="26" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="25" t="s">
@@ -2497,7 +2525,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="25"/>
       <c r="C43" s="4" t="s">
         <v>31</v>
@@ -2516,7 +2544,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
+      <c r="A44" s="27"/>
       <c r="B44" s="25"/>
       <c r="C44" s="4" t="s">
         <v>30</v>
@@ -2535,7 +2563,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="40"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="25"/>
       <c r="C45" s="4" t="s">
         <v>23</v>
@@ -2553,8 +2581,44 @@
         <v>194</v>
       </c>
     </row>
+    <row r="47" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+    </row>
+    <row r="48" spans="1:7" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+    </row>
+    <row r="49" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A49:G49"/>
     <mergeCell ref="A33:A41"/>
     <mergeCell ref="B35:B40"/>
     <mergeCell ref="A42:A45"/>
@@ -2752,7 +2816,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2761,102 +2825,102 @@
       <c r="C7" s="7">
         <v>224</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="36">
         <v>512</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="37">
         <v>64</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="40" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2">
         <v>256</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>384</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="36">
         <v>1024</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="37">
         <v>80</v>
       </c>
       <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>512</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="2">
         <v>224</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="2">
         <v>256</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2865,104 +2929,109 @@
       <c r="C13" s="2">
         <v>224</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="7">
         <v>1152</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="37">
         <v>24</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="40" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="2">
         <v>256</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="7">
         <v>1088</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="35"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="2">
         <v>384</v>
       </c>
-      <c r="D15" s="37"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="7">
         <v>832</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="35"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="2">
         <v>512</v>
       </c>
-      <c r="D16" s="37"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="7">
         <v>576</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="35"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="37"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="7">
         <v>1344</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="35"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="7">
         <v>1088</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H12"/>
+    <mergeCell ref="H13:H18"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="D13:D18"/>
     <mergeCell ref="F13:F18"/>
@@ -2973,11 +3042,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D9:D12"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H12"/>
-    <mergeCell ref="H13:H18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
